--- a/data/ansp_employment.xlsx
+++ b/data/ansp_employment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B30C8-B2DE-4C87-9174-ACFAB3DEA640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60932683-7FA0-40EE-B39D-EEC067E58FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43095" yWindow="2880" windowWidth="21600" windowHeight="11325" tabRatio="346" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="346" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ATCOs in OPS</t>
   </si>
@@ -135,9 +135,6 @@
     <t>UkSATSE</t>
   </si>
   <si>
-    <t>Oro navigacija</t>
-  </si>
-  <si>
     <t>ENAIRE</t>
   </si>
   <si>
@@ -147,123 +144,9 @@
     <t>MOLDATSA</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Findland</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Slovak Republic</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Maastricht</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Giorgia</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Serbia Montenegro</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>Skeyes</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>Fintraffic ANS</t>
   </si>
   <si>
@@ -279,9 +162,6 @@
     <t>ansp</t>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
     <t>Support Staff</t>
   </si>
   <si>
@@ -297,10 +177,10 @@
     <t>funct</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>ECTRL Area (average)</t>
+    <t>Oro Navigacija</t>
+  </si>
+  <si>
+    <t>ECTRL Area</t>
   </si>
 </sst>
 </file>
@@ -1028,9 +908,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="162">
     <cellStyle name="20 % - Accent1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1544,13 +1423,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1566,7 +1445,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>74000</v>
@@ -1577,7 +1456,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>99000</v>
@@ -1594,704 +1473,604 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F5E44C-C8C2-4119-8BE2-279CC5806A69}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1">
-        <v>28517.857142857141</v>
-      </c>
-      <c r="D2" s="1">
-        <v>13526.717557251908</v>
-      </c>
-      <c r="E2" s="1">
-        <v>16166.666666666668</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>135000</v>
+      </c>
+      <c r="C2">
+        <v>54000</v>
+      </c>
+      <c r="D2">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1">
-        <v>134613.95348837209</v>
-      </c>
-      <c r="D3" s="1">
-        <v>53924.840764331209</v>
-      </c>
-      <c r="E3" s="1">
-        <v>71273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>23000</v>
+      </c>
+      <c r="C3">
+        <v>13000</v>
+      </c>
+      <c r="D3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1">
-        <v>23267.605633802817</v>
-      </c>
-      <c r="D4" s="1">
-        <v>13417.040358744394</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15795.91836734694</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>204000</v>
+      </c>
+      <c r="C4">
+        <v>108000</v>
+      </c>
+      <c r="D4">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1">
-        <v>203530.90909090909</v>
-      </c>
-      <c r="D5" s="1">
-        <v>108389.89169675091</v>
-      </c>
-      <c r="E5" s="1">
-        <v>139950.54282267793</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>189000</v>
+      </c>
+      <c r="C5">
+        <v>99000</v>
+      </c>
+      <c r="D5">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1">
-        <v>189000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>98724.845995893222</v>
-      </c>
-      <c r="E6" s="1">
-        <v>134857.14285714287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>101000</v>
+      </c>
+      <c r="C6">
+        <v>44000</v>
+      </c>
+      <c r="D6">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100669.06474820143</v>
-      </c>
-      <c r="D7" s="1">
-        <v>44450.428396572825</v>
-      </c>
-      <c r="E7" s="1">
-        <v>58723.287671232873</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>128000</v>
+      </c>
+      <c r="C7">
+        <v>63000</v>
+      </c>
+      <c r="D7">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1">
-        <v>127816.59388646288</v>
-      </c>
-      <c r="D8" s="1">
-        <v>62619.589977220952</v>
-      </c>
-      <c r="E8" s="1">
-        <v>84970.059880239511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>95000</v>
+      </c>
+      <c r="C8">
+        <v>60000</v>
+      </c>
+      <c r="D8">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1">
-        <v>95163.461538461532</v>
-      </c>
-      <c r="D9" s="1">
-        <v>60238.095238095244</v>
-      </c>
-      <c r="E9" s="1">
-        <v>76030.434782608689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>252000</v>
+      </c>
+      <c r="C9">
+        <v>103000</v>
+      </c>
+      <c r="D9">
+        <v>151000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1">
-        <v>251567.42556917688</v>
-      </c>
-      <c r="D10" s="1">
-        <v>102682.89211500142</v>
-      </c>
-      <c r="E10" s="1">
-        <v>151484.88327592803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>57000</v>
+      </c>
+      <c r="C10">
+        <v>16000</v>
+      </c>
+      <c r="D10">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1">
-        <v>56915.117719950431</v>
-      </c>
-      <c r="D11" s="1">
-        <v>16145.912187736563</v>
-      </c>
-      <c r="E11" s="1">
-        <v>25685.126123514063</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>135000</v>
+      </c>
+      <c r="C11">
+        <v>101000</v>
+      </c>
+      <c r="D11">
+        <v>113000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="1">
-        <v>134859.15492957746</v>
-      </c>
-      <c r="D12" s="1">
-        <v>100782.62634463163</v>
-      </c>
-      <c r="E12" s="1">
-        <v>113242.6934466332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>120000</v>
+      </c>
+      <c r="C12">
+        <v>46000</v>
+      </c>
+      <c r="D12">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1">
-        <v>119983.05084745763</v>
-      </c>
-      <c r="D13" s="1">
-        <v>46355.932203389835</v>
-      </c>
-      <c r="E13" s="1">
-        <v>70898.305084745763</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>189000</v>
+      </c>
+      <c r="C13">
+        <v>95000</v>
+      </c>
+      <c r="D13">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1">
-        <v>188964.1791044776</v>
-      </c>
-      <c r="D14" s="1">
-        <v>95189.296771340116</v>
-      </c>
-      <c r="E14" s="1">
-        <v>135096.03658536586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>147000</v>
+      </c>
+      <c r="C14">
+        <v>95000</v>
+      </c>
+      <c r="D14">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="1">
-        <v>147111.1903064861</v>
-      </c>
-      <c r="D15" s="1">
-        <v>94597.609561752994</v>
-      </c>
-      <c r="E15" s="1">
-        <v>119924.71639738741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>125000</v>
+      </c>
+      <c r="C15">
+        <v>83000</v>
+      </c>
+      <c r="D15">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1">
-        <v>124857.14285714286</v>
-      </c>
-      <c r="D16" s="1">
-        <v>83327.044025157229</v>
-      </c>
-      <c r="E16" s="1">
-        <v>102772.57525083613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>73000</v>
+      </c>
+      <c r="C16">
+        <v>51000</v>
+      </c>
+      <c r="D16">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1">
-        <v>73271.983640081802</v>
-      </c>
-      <c r="D17" s="1">
-        <v>50605.194805194806</v>
-      </c>
-      <c r="E17" s="1">
-        <v>57347.323600973235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>125000</v>
+      </c>
+      <c r="C17">
+        <v>42000</v>
+      </c>
+      <c r="D17">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1">
-        <v>125357.54189944135</v>
-      </c>
-      <c r="D18" s="1">
-        <v>42347.24540901502</v>
-      </c>
-      <c r="E18" s="1">
-        <v>61446.015424164521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>153000</v>
+      </c>
+      <c r="C18">
+        <v>115000</v>
+      </c>
+      <c r="D18">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="1">
-        <v>152828.79377431906</v>
-      </c>
-      <c r="D19" s="1">
-        <v>115257.51072961373</v>
-      </c>
-      <c r="E19" s="1">
-        <v>134963.26530612246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>317000</v>
+      </c>
+      <c r="C19">
+        <v>149000</v>
+      </c>
+      <c r="D19">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1">
-        <v>316661.57760814246</v>
-      </c>
-      <c r="D20" s="1">
-        <v>149023.40425531915</v>
-      </c>
-      <c r="E20" s="1">
-        <v>225363.84704519119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>69000</v>
+      </c>
+      <c r="C20">
+        <v>31000</v>
+      </c>
+      <c r="D20">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="1">
-        <v>69452.054794520547</v>
-      </c>
-      <c r="D21" s="1">
-        <v>31222.627737226278</v>
-      </c>
-      <c r="E21" s="1">
-        <v>39265.129682997118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>126000</v>
+      </c>
+      <c r="C21">
+        <v>42000</v>
+      </c>
+      <c r="D21">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="1">
-        <v>125745.09803921569</v>
-      </c>
-      <c r="D22" s="1">
-        <v>41917.098445595853</v>
-      </c>
-      <c r="E22" s="1">
-        <v>59438.524590163935</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>172000</v>
+      </c>
+      <c r="C22">
+        <v>133000</v>
+      </c>
+      <c r="D22">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="1">
-        <v>171593.3014354067</v>
-      </c>
-      <c r="D23" s="1">
-        <v>132778.2656421515</v>
-      </c>
-      <c r="E23" s="1">
-        <v>140021.42857142858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>104000</v>
+      </c>
+      <c r="C23">
+        <v>53000</v>
+      </c>
+      <c r="D23">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="1">
-        <v>103765.95744680852</v>
-      </c>
-      <c r="D24" s="1">
-        <v>53389.380530973453</v>
-      </c>
-      <c r="E24" s="1">
-        <v>68187.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>66000</v>
+      </c>
+      <c r="C24">
+        <v>28000</v>
+      </c>
+      <c r="D24">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="1">
-        <v>66000</v>
-      </c>
-      <c r="D25" s="1">
-        <v>28366.515837104071</v>
-      </c>
-      <c r="E25" s="1">
-        <v>36507.092198581558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>27000</v>
+      </c>
+      <c r="C25">
+        <v>13000</v>
+      </c>
+      <c r="D25">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="1">
-        <v>26953.846153846152</v>
-      </c>
-      <c r="D26" s="1">
-        <v>13468.75</v>
-      </c>
-      <c r="E26" s="1">
-        <v>17364.444444444445</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>339000</v>
+      </c>
+      <c r="C26">
+        <v>183000</v>
+      </c>
+      <c r="D26">
+        <v>237000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="1">
-        <v>339375.54585152841</v>
-      </c>
-      <c r="D27" s="1">
-        <v>182829.88505747129</v>
-      </c>
-      <c r="E27" s="1">
-        <v>236819.27710843374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>173000</v>
+      </c>
+      <c r="C27">
+        <v>80000</v>
+      </c>
+      <c r="D27">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="1">
-        <v>172697.01853344077</v>
-      </c>
-      <c r="D28" s="1">
-        <v>80436.225371586581</v>
-      </c>
-      <c r="E28" s="1">
-        <v>108132.31736816642</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>274000</v>
+      </c>
+      <c r="C28">
+        <v>91000</v>
+      </c>
+      <c r="D28">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="1">
-        <v>274070</v>
-      </c>
-      <c r="D29" s="1">
-        <v>90555.555555555562</v>
-      </c>
-      <c r="E29" s="1">
-        <v>144058.30903790088</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>169000</v>
+      </c>
+      <c r="C29">
+        <v>119000</v>
+      </c>
+      <c r="D29">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="1">
-        <v>169465.90909090909</v>
-      </c>
-      <c r="D30" s="1">
-        <v>118675.92592592593</v>
-      </c>
-      <c r="E30" s="1">
-        <v>133378.28947368421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>77000</v>
+      </c>
+      <c r="C30">
+        <v>42000</v>
+      </c>
+      <c r="D30">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="1">
-        <v>77367.088607594938</v>
-      </c>
-      <c r="D31" s="1">
-        <v>42270.408163265311</v>
-      </c>
-      <c r="E31" s="1">
-        <v>52352.727272727272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>114000</v>
+      </c>
+      <c r="C31">
+        <v>45000</v>
+      </c>
+      <c r="D31">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="1">
-        <v>114025.64102564102</v>
-      </c>
-      <c r="D32" s="1">
-        <v>44840.891621829367</v>
-      </c>
-      <c r="E32" s="1">
-        <v>66300.636267232228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>121000</v>
+      </c>
+      <c r="C32">
+        <v>79000</v>
+      </c>
+      <c r="D32">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="1">
-        <v>120702.21327967806</v>
-      </c>
-      <c r="D33" s="1">
-        <v>78693.059628543488</v>
-      </c>
-      <c r="E33" s="1">
-        <v>92428.947368421053</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>24000</v>
+      </c>
+      <c r="C33">
+        <v>14000</v>
+      </c>
+      <c r="D33">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="1">
-        <v>24411.764705882353</v>
-      </c>
-      <c r="D34" s="1">
-        <v>13663.608562691132</v>
-      </c>
-      <c r="E34" s="1">
-        <v>15113.756613756614</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>205000</v>
+      </c>
+      <c r="C34">
+        <v>143000</v>
+      </c>
+      <c r="D34">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="1">
-        <v>205340.5172413793</v>
-      </c>
-      <c r="D35" s="1">
-        <v>143303.35097001764</v>
-      </c>
-      <c r="E35" s="1">
-        <v>161316.64580725908</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>236000</v>
+      </c>
+      <c r="C35">
+        <v>169000</v>
+      </c>
+      <c r="D35">
+        <v>183000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="1">
-        <v>235688.7159533074</v>
-      </c>
-      <c r="D36" s="1">
-        <v>169382.06627680312</v>
-      </c>
-      <c r="E36" s="1">
-        <v>182664.06858924395</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>113000</v>
+      </c>
+      <c r="C36">
+        <v>81000</v>
+      </c>
+      <c r="D36">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="1">
-        <v>112614.4578313253</v>
-      </c>
-      <c r="D37" s="1">
-        <v>81471.42857142858</v>
-      </c>
-      <c r="E37" s="1">
-        <v>93062.78026905829</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>65000</v>
+      </c>
+      <c r="C37">
+        <v>48000</v>
+      </c>
+      <c r="D37">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="1">
-        <v>65392.739273927393</v>
-      </c>
-      <c r="D38" s="1">
-        <v>48350.77519379845</v>
-      </c>
-      <c r="E38" s="1">
-        <v>54655.67765567766</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>31000</v>
+      </c>
+      <c r="C38">
+        <v>23000</v>
+      </c>
+      <c r="D38">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="1">
-        <v>30960.216998191681</v>
-      </c>
-      <c r="D39" s="1">
-        <v>23221.42064372919</v>
-      </c>
-      <c r="E39" s="1">
-        <v>25038.64118895966</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>135000</v>
+      </c>
+      <c r="C39">
+        <v>54000</v>
+      </c>
+      <c r="D39">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="1">
-        <v>150662.18622551553</v>
-      </c>
-      <c r="D40" s="1">
-        <v>74359.694558658623</v>
-      </c>
-      <c r="E40" s="1">
-        <v>98571.824362502972</v>
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>151000</v>
+      </c>
+      <c r="C40">
+        <v>74000</v>
+      </c>
+      <c r="D40">
+        <v>99000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b021fe13dcae56d252e7321283a3f3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d73ac3668dfd0d4084037886131f3a8" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -2534,27 +2313,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3ADF35-F119-4BE6-85A8-2E5C6C3A1AE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B31F663-6144-4024-83F4-0C35A9D0D635}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C2D98D-4316-42A5-A479-7A098215D7A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2571,29 +2355,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B31F663-6144-4024-83F4-0C35A9D0D635}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3ADF35-F119-4BE6-85A8-2E5C6C3A1AE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ansp_employment.xlsx
+++ b/data/ansp_employment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B30C8-B2DE-4C87-9174-ACFAB3DEA640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAEEFB8-9095-40C0-97A1-F8ECE3A2F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43095" yWindow="2880" windowWidth="21600" windowHeight="11325" tabRatio="346" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="346" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ATCOs in OPS</t>
   </si>
@@ -147,123 +147,9 @@
     <t>MOLDATSA</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Findland</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Slovak Republic</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Maastricht</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Giorgia</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Serbia Montenegro</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>Skeyes</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>Fintraffic ANS</t>
   </si>
   <si>
@@ -279,9 +165,6 @@
     <t>ansp</t>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
     <t>Support Staff</t>
   </si>
   <si>
@@ -295,9 +178,6 @@
   </si>
   <si>
     <t>funct</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
   <si>
     <t>ECTRL Area (average)</t>
@@ -1544,13 +1424,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1566,7 +1446,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>74000</v>
@@ -1577,7 +1457,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>99000</v>
@@ -1594,695 +1474,574 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F5E44C-C8C2-4119-8BE2-279CC5806A69}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B7" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
+      <c r="B2" s="1">
+        <v>28517.857142857141</v>
       </c>
       <c r="C2" s="1">
-        <v>28517.857142857141</v>
+        <v>13526.717557251908</v>
       </c>
       <c r="D2" s="1">
-        <v>13526.717557251908</v>
-      </c>
-      <c r="E2" s="1">
         <v>16166.666666666668</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
+      <c r="B3" s="1">
+        <v>134613.95348837209</v>
       </c>
       <c r="C3" s="1">
-        <v>134613.95348837209</v>
+        <v>53924.840764331209</v>
       </c>
       <c r="D3" s="1">
-        <v>53924.840764331209</v>
-      </c>
-      <c r="E3" s="1">
         <v>71273</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
+      <c r="B4" s="1">
+        <v>23267.605633802817</v>
       </c>
       <c r="C4" s="1">
-        <v>23267.605633802817</v>
+        <v>13417.040358744394</v>
       </c>
       <c r="D4" s="1">
-        <v>13417.040358744394</v>
-      </c>
-      <c r="E4" s="1">
         <v>15795.91836734694</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
+      <c r="B5" s="1">
+        <v>203530.90909090909</v>
       </c>
       <c r="C5" s="1">
-        <v>203530.90909090909</v>
+        <v>108389.89169675091</v>
       </c>
       <c r="D5" s="1">
-        <v>108389.89169675091</v>
-      </c>
-      <c r="E5" s="1">
         <v>139950.54282267793</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>42</v>
+      <c r="B6" s="1">
+        <v>189000</v>
       </c>
       <c r="C6" s="1">
-        <v>189000</v>
+        <v>98724.845995893222</v>
       </c>
       <c r="D6" s="1">
-        <v>98724.845995893222</v>
-      </c>
-      <c r="E6" s="1">
         <v>134857.14285714287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
+      <c r="B7" s="1">
+        <v>100669.06474820143</v>
       </c>
       <c r="C7" s="1">
-        <v>100669.06474820143</v>
+        <v>44450.428396572825</v>
       </c>
       <c r="D7" s="1">
-        <v>44450.428396572825</v>
-      </c>
-      <c r="E7" s="1">
         <v>58723.287671232873</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>44</v>
+      <c r="B8" s="1">
+        <v>127816.59388646288</v>
       </c>
       <c r="C8" s="1">
-        <v>127816.59388646288</v>
+        <v>62619.589977220952</v>
       </c>
       <c r="D8" s="1">
-        <v>62619.589977220952</v>
-      </c>
-      <c r="E8" s="1">
         <v>84970.059880239511</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>45</v>
+      <c r="B9" s="1">
+        <v>95163.461538461532</v>
       </c>
       <c r="C9" s="1">
-        <v>95163.461538461532</v>
+        <v>60238.095238095244</v>
       </c>
       <c r="D9" s="1">
-        <v>60238.095238095244</v>
-      </c>
-      <c r="E9" s="1">
         <v>76030.434782608689</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
+      <c r="B10" s="1">
+        <v>251567.42556917688</v>
       </c>
       <c r="C10" s="1">
-        <v>251567.42556917688</v>
+        <v>102682.89211500142</v>
       </c>
       <c r="D10" s="1">
-        <v>102682.89211500142</v>
-      </c>
-      <c r="E10" s="1">
         <v>151484.88327592803</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
+      <c r="B11" s="1">
+        <v>56915.117719950431</v>
       </c>
       <c r="C11" s="1">
-        <v>56915.117719950431</v>
+        <v>16145.912187736563</v>
       </c>
       <c r="D11" s="1">
-        <v>16145.912187736563</v>
-      </c>
-      <c r="E11" s="1">
         <v>25685.126123514063</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>48</v>
+      <c r="B12" s="1">
+        <v>134859.15492957746</v>
       </c>
       <c r="C12" s="1">
-        <v>134859.15492957746</v>
+        <v>100782.62634463163</v>
       </c>
       <c r="D12" s="1">
-        <v>100782.62634463163</v>
-      </c>
-      <c r="E12" s="1">
         <v>113242.6934466332</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
+      <c r="B13" s="1">
+        <v>119983.05084745763</v>
       </c>
       <c r="C13" s="1">
-        <v>119983.05084745763</v>
+        <v>46355.932203389835</v>
       </c>
       <c r="D13" s="1">
-        <v>46355.932203389835</v>
-      </c>
-      <c r="E13" s="1">
         <v>70898.305084745763</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>50</v>
+      <c r="B14" s="1">
+        <v>188964.1791044776</v>
       </c>
       <c r="C14" s="1">
-        <v>188964.1791044776</v>
+        <v>95189.296771340116</v>
       </c>
       <c r="D14" s="1">
-        <v>95189.296771340116</v>
-      </c>
-      <c r="E14" s="1">
         <v>135096.03658536586</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
+      <c r="B15" s="1">
+        <v>147111.1903064861</v>
       </c>
       <c r="C15" s="1">
-        <v>147111.1903064861</v>
+        <v>94597.609561752994</v>
       </c>
       <c r="D15" s="1">
-        <v>94597.609561752994</v>
-      </c>
-      <c r="E15" s="1">
         <v>119924.71639738741</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B16" s="1">
+        <v>124857.14285714286</v>
       </c>
       <c r="C16" s="1">
-        <v>124857.14285714286</v>
+        <v>83327.044025157229</v>
       </c>
       <c r="D16" s="1">
-        <v>83327.044025157229</v>
-      </c>
-      <c r="E16" s="1">
         <v>102772.57525083613</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>51</v>
+      <c r="B17" s="1">
+        <v>73271.983640081802</v>
       </c>
       <c r="C17" s="1">
-        <v>73271.983640081802</v>
+        <v>50605.194805194806</v>
       </c>
       <c r="D17" s="1">
-        <v>50605.194805194806</v>
-      </c>
-      <c r="E17" s="1">
         <v>57347.323600973235</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>52</v>
+      <c r="B18" s="1">
+        <v>125357.54189944135</v>
       </c>
       <c r="C18" s="1">
-        <v>125357.54189944135</v>
+        <v>42347.24540901502</v>
       </c>
       <c r="D18" s="1">
-        <v>42347.24540901502</v>
-      </c>
-      <c r="E18" s="1">
         <v>61446.015424164521</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>53</v>
+      <c r="B19" s="1">
+        <v>152828.79377431906</v>
       </c>
       <c r="C19" s="1">
-        <v>152828.79377431906</v>
+        <v>115257.51072961373</v>
       </c>
       <c r="D19" s="1">
-        <v>115257.51072961373</v>
-      </c>
-      <c r="E19" s="1">
         <v>134963.26530612246</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>54</v>
+      <c r="B20" s="1">
+        <v>316661.57760814246</v>
       </c>
       <c r="C20" s="1">
-        <v>316661.57760814246</v>
+        <v>149023.40425531915</v>
       </c>
       <c r="D20" s="1">
-        <v>149023.40425531915</v>
-      </c>
-      <c r="E20" s="1">
         <v>225363.84704519119</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>55</v>
+      <c r="B21" s="1">
+        <v>69452.054794520547</v>
       </c>
       <c r="C21" s="1">
-        <v>69452.054794520547</v>
+        <v>31222.627737226278</v>
       </c>
       <c r="D21" s="1">
-        <v>31222.627737226278</v>
-      </c>
-      <c r="E21" s="1">
         <v>39265.129682997118</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>56</v>
+      <c r="B22" s="1">
+        <v>125745.09803921569</v>
       </c>
       <c r="C22" s="1">
-        <v>125745.09803921569</v>
+        <v>41917.098445595853</v>
       </c>
       <c r="D22" s="1">
-        <v>41917.098445595853</v>
-      </c>
-      <c r="E22" s="1">
         <v>59438.524590163935</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>57</v>
+      <c r="B23" s="1">
+        <v>171593.3014354067</v>
       </c>
       <c r="C23" s="1">
-        <v>171593.3014354067</v>
+        <v>132778.2656421515</v>
       </c>
       <c r="D23" s="1">
-        <v>132778.2656421515</v>
-      </c>
-      <c r="E23" s="1">
         <v>140021.42857142858</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>58</v>
+      <c r="B24" s="1">
+        <v>103765.95744680852</v>
       </c>
       <c r="C24" s="1">
-        <v>103765.95744680852</v>
+        <v>53389.380530973453</v>
       </c>
       <c r="D24" s="1">
-        <v>53389.380530973453</v>
-      </c>
-      <c r="E24" s="1">
         <v>68187.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>75</v>
+      <c r="B25" s="1">
+        <v>66000</v>
       </c>
       <c r="C25" s="1">
-        <v>66000</v>
+        <v>28366.515837104071</v>
       </c>
       <c r="D25" s="1">
-        <v>28366.515837104071</v>
-      </c>
-      <c r="E25" s="1">
         <v>36507.092198581558</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" t="s">
-        <v>59</v>
+      <c r="B26" s="1">
+        <v>26953.846153846152</v>
       </c>
       <c r="C26" s="1">
-        <v>26953.846153846152</v>
+        <v>13468.75</v>
       </c>
       <c r="D26" s="1">
-        <v>13468.75</v>
-      </c>
-      <c r="E26" s="1">
         <v>17364.444444444445</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>60</v>
+      <c r="B27" s="1">
+        <v>339375.54585152841</v>
       </c>
       <c r="C27" s="1">
-        <v>339375.54585152841</v>
+        <v>182829.88505747129</v>
       </c>
       <c r="D27" s="1">
-        <v>182829.88505747129</v>
-      </c>
-      <c r="E27" s="1">
         <v>236819.27710843374</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>61</v>
+      <c r="B28" s="1">
+        <v>172697.01853344077</v>
       </c>
       <c r="C28" s="1">
-        <v>172697.01853344077</v>
+        <v>80436.225371586581</v>
       </c>
       <c r="D28" s="1">
-        <v>80436.225371586581</v>
-      </c>
-      <c r="E28" s="1">
         <v>108132.31736816642</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
-        <v>62</v>
+      <c r="B29" s="1">
+        <v>274070</v>
       </c>
       <c r="C29" s="1">
-        <v>274070</v>
+        <v>90555.555555555562</v>
       </c>
       <c r="D29" s="1">
-        <v>90555.555555555562</v>
-      </c>
-      <c r="E29" s="1">
         <v>144058.30903790088</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
-        <v>63</v>
+      <c r="B30" s="1">
+        <v>169465.90909090909</v>
       </c>
       <c r="C30" s="1">
-        <v>169465.90909090909</v>
+        <v>118675.92592592593</v>
       </c>
       <c r="D30" s="1">
-        <v>118675.92592592593</v>
-      </c>
-      <c r="E30" s="1">
         <v>133378.28947368421</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
+      <c r="B31" s="1">
+        <v>77367.088607594938</v>
       </c>
       <c r="C31" s="1">
-        <v>77367.088607594938</v>
+        <v>42270.408163265311</v>
       </c>
       <c r="D31" s="1">
-        <v>42270.408163265311</v>
-      </c>
-      <c r="E31" s="1">
         <v>52352.727272727272</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
-        <v>65</v>
+      <c r="B32" s="1">
+        <v>114025.64102564102</v>
       </c>
       <c r="C32" s="1">
-        <v>114025.64102564102</v>
+        <v>44840.891621829367</v>
       </c>
       <c r="D32" s="1">
-        <v>44840.891621829367</v>
-      </c>
-      <c r="E32" s="1">
         <v>66300.636267232228</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" t="s">
-        <v>66</v>
+      <c r="B33" s="1">
+        <v>120702.21327967806</v>
       </c>
       <c r="C33" s="1">
-        <v>120702.21327967806</v>
+        <v>78693.059628543488</v>
       </c>
       <c r="D33" s="1">
-        <v>78693.059628543488</v>
-      </c>
-      <c r="E33" s="1">
         <v>92428.947368421053</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
-        <v>67</v>
+      <c r="B34" s="1">
+        <v>24411.764705882353</v>
       </c>
       <c r="C34" s="1">
-        <v>24411.764705882353</v>
+        <v>13663.608562691132</v>
       </c>
       <c r="D34" s="1">
-        <v>13663.608562691132</v>
-      </c>
-      <c r="E34" s="1">
         <v>15113.756613756614</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>205340.5172413793</v>
       </c>
       <c r="C35" s="1">
-        <v>205340.5172413793</v>
+        <v>143303.35097001764</v>
       </c>
       <c r="D35" s="1">
-        <v>143303.35097001764</v>
-      </c>
-      <c r="E35" s="1">
         <v>161316.64580725908</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="B36" t="s">
-        <v>68</v>
+      <c r="B36" s="1">
+        <v>235688.7159533074</v>
       </c>
       <c r="C36" s="1">
-        <v>235688.7159533074</v>
+        <v>169382.06627680312</v>
       </c>
       <c r="D36" s="1">
-        <v>169382.06627680312</v>
-      </c>
-      <c r="E36" s="1">
         <v>182664.06858924395</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" t="s">
-        <v>69</v>
+      <c r="B37" s="1">
+        <v>112614.4578313253</v>
       </c>
       <c r="C37" s="1">
-        <v>112614.4578313253</v>
+        <v>81471.42857142858</v>
       </c>
       <c r="D37" s="1">
-        <v>81471.42857142858</v>
-      </c>
-      <c r="E37" s="1">
         <v>93062.78026905829</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
-      <c r="B38" t="s">
-        <v>70</v>
+      <c r="B38" s="1">
+        <v>65392.739273927393</v>
       </c>
       <c r="C38" s="1">
-        <v>65392.739273927393</v>
+        <v>48350.77519379845</v>
       </c>
       <c r="D38" s="1">
-        <v>48350.77519379845</v>
-      </c>
-      <c r="E38" s="1">
         <v>54655.67765567766</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
-      <c r="B39" t="s">
-        <v>71</v>
+      <c r="B39" s="1">
+        <v>30960.216998191681</v>
       </c>
       <c r="C39" s="1">
-        <v>30960.216998191681</v>
+        <v>23221.42064372919</v>
       </c>
       <c r="D39" s="1">
-        <v>23221.42064372919</v>
-      </c>
-      <c r="E39" s="1">
         <v>25038.64118895966</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
+        <v>48</v>
+      </c>
+      <c r="B40" s="1">
+        <v>150662.18622551553</v>
       </c>
       <c r="C40" s="1">
-        <v>150662.18622551553</v>
+        <v>74359.694558658623</v>
       </c>
       <c r="D40" s="1">
-        <v>74359.694558658623</v>
-      </c>
-      <c r="E40" s="1">
         <v>98571.824362502972</v>
       </c>
     </row>
@@ -2535,15 +2294,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
@@ -2552,6 +2302,15 @@
     <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2574,14 +2333,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B31F663-6144-4024-83F4-0C35A9D0D635}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3ADF35-F119-4BE6-85A8-2E5C6C3A1AE7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2596,4 +2347,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B31F663-6144-4024-83F4-0C35A9D0D635}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ansp_employment.xlsx
+++ b/data/ansp_employment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAEEFB8-9095-40C0-97A1-F8ECE3A2F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C256BC-D814-448A-8B42-9DFA47EC9299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="346" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="346" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="6" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>ENAV</t>
   </si>
   <si>
-    <t>HCAA</t>
-  </si>
-  <si>
     <t>HungaroControl</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>SMATSA</t>
   </si>
   <si>
-    <t>UkSATSE</t>
-  </si>
-  <si>
     <t>Oro navigacija</t>
   </si>
   <si>
@@ -180,7 +174,13 @@
     <t>funct</t>
   </si>
   <si>
-    <t>ECTRL Area (average)</t>
+    <t>BHANSA</t>
+  </si>
+  <si>
+    <t>HASP</t>
+  </si>
+  <si>
+    <t>EUROCONTROL area -average values</t>
   </si>
 </sst>
 </file>
@@ -908,9 +908,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="162">
     <cellStyle name="20 % - Accent1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1090,9 +1089,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1130,9 +1129,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1165,26 +1164,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1217,26 +1199,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1412,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5860F2C3-40C4-470A-B996-357D7A9DF598}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,13 +1389,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,32 +1403,32 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>151000</v>
+        <v>149000</v>
       </c>
       <c r="C2">
-        <v>155000</v>
+        <v>174600</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>74000</v>
+        <v>78600</v>
       </c>
       <c r="C3">
-        <v>78000</v>
+        <v>96700</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>99000</v>
+        <v>101300</v>
       </c>
       <c r="C4">
-        <v>103000</v>
+        <v>122900</v>
       </c>
     </row>
   </sheetData>
@@ -1476,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F5E44C-C8C2-4119-8BE2-279CC5806A69}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,562 +1452,562 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>28517.857142857141</v>
-      </c>
-      <c r="C2" s="1">
-        <v>13526.717557251908</v>
-      </c>
-      <c r="D2" s="1">
-        <v>16166.666666666668</v>
+      <c r="B2">
+        <v>25157</v>
+      </c>
+      <c r="C2">
+        <v>12004</v>
+      </c>
+      <c r="D2">
+        <v>14278</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>134613.95348837209</v>
-      </c>
-      <c r="C3" s="1">
-        <v>53924.840764331209</v>
-      </c>
-      <c r="D3" s="1">
-        <v>71273</v>
+      <c r="B3">
+        <v>92480</v>
+      </c>
+      <c r="C3">
+        <v>48890</v>
+      </c>
+      <c r="D3">
+        <v>59632</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>23267.605633802817</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13417.040358744394</v>
-      </c>
-      <c r="D4" s="1">
-        <v>15795.91836734694</v>
+      <c r="B4">
+        <v>26608</v>
+      </c>
+      <c r="C4">
+        <v>15573</v>
+      </c>
+      <c r="D4">
+        <v>18564</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>203530.90909090909</v>
-      </c>
-      <c r="C5" s="1">
-        <v>108389.89169675091</v>
-      </c>
-      <c r="D5" s="1">
-        <v>139950.54282267793</v>
+      <c r="B5">
+        <v>212241</v>
+      </c>
+      <c r="C5">
+        <v>144827</v>
+      </c>
+      <c r="D5">
+        <v>168198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>189000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>98724.845995893222</v>
-      </c>
-      <c r="D6" s="1">
-        <v>134857.14285714287</v>
+      <c r="B6">
+        <v>200980</v>
+      </c>
+      <c r="C6">
+        <v>100844</v>
+      </c>
+      <c r="D6">
+        <v>141867</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>100669.06474820143</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44450.428396572825</v>
-      </c>
-      <c r="D7" s="1">
-        <v>58723.287671232873</v>
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>33229</v>
+      </c>
+      <c r="C7">
+        <v>27790</v>
+      </c>
+      <c r="D7">
+        <v>29339</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>127816.59388646288</v>
-      </c>
-      <c r="C8" s="1">
-        <v>62619.589977220952</v>
-      </c>
-      <c r="D8" s="1">
-        <v>84970.059880239511</v>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>97975</v>
+      </c>
+      <c r="C8">
+        <v>43886</v>
+      </c>
+      <c r="D8">
+        <v>57983</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>95163.461538461532</v>
-      </c>
-      <c r="C9" s="1">
-        <v>60238.095238095244</v>
-      </c>
-      <c r="D9" s="1">
-        <v>76030.434782608689</v>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>114253</v>
+      </c>
+      <c r="C9">
+        <v>55490</v>
+      </c>
+      <c r="D9">
+        <v>75575</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>251567.42556917688</v>
-      </c>
-      <c r="C10" s="1">
-        <v>102682.89211500142</v>
-      </c>
-      <c r="D10" s="1">
-        <v>151484.88327592803</v>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>103333</v>
+      </c>
+      <c r="C10">
+        <v>65184</v>
+      </c>
+      <c r="D10">
+        <v>82867</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>56915.117719950431</v>
-      </c>
-      <c r="C11" s="1">
-        <v>16145.912187736563</v>
-      </c>
-      <c r="D11" s="1">
-        <v>25685.126123514063</v>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>259922</v>
+      </c>
+      <c r="C11">
+        <v>108590</v>
+      </c>
+      <c r="D11">
+        <v>154303</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>134859.15492957746</v>
-      </c>
-      <c r="C12" s="1">
-        <v>100782.62634463163</v>
-      </c>
-      <c r="D12" s="1">
-        <v>113242.6934466332</v>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>48531</v>
+      </c>
+      <c r="C12">
+        <v>13627</v>
+      </c>
+      <c r="D12">
+        <v>21911</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>119983.05084745763</v>
-      </c>
-      <c r="C13" s="1">
-        <v>46355.932203389835</v>
-      </c>
-      <c r="D13" s="1">
-        <v>70898.305084745763</v>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>135757</v>
+      </c>
+      <c r="C13">
+        <v>101783</v>
+      </c>
+      <c r="D13">
+        <v>114204</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1">
-        <v>188964.1791044776</v>
-      </c>
-      <c r="C14" s="1">
-        <v>95189.296771340116</v>
-      </c>
-      <c r="D14" s="1">
-        <v>135096.03658536586</v>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>118386</v>
+      </c>
+      <c r="C14">
+        <v>44161</v>
+      </c>
+      <c r="D14">
+        <v>68337</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>147111.1903064861</v>
-      </c>
-      <c r="C15" s="1">
-        <v>94597.609561752994</v>
-      </c>
-      <c r="D15" s="1">
-        <v>119924.71639738741</v>
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>189385</v>
+      </c>
+      <c r="C15">
+        <v>100512</v>
+      </c>
+      <c r="D15">
+        <v>136938</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1">
-        <v>124857.14285714286</v>
-      </c>
-      <c r="C16" s="1">
-        <v>83327.044025157229</v>
-      </c>
-      <c r="D16" s="1">
-        <v>102772.57525083613</v>
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>160131</v>
+      </c>
+      <c r="C16">
+        <v>107708</v>
+      </c>
+      <c r="D16">
+        <v>131787</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1">
-        <v>73271.983640081802</v>
-      </c>
-      <c r="C17" s="1">
-        <v>50605.194805194806</v>
-      </c>
-      <c r="D17" s="1">
-        <v>57347.323600973235</v>
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>121324</v>
+      </c>
+      <c r="C17">
+        <v>91881</v>
+      </c>
+      <c r="D17">
+        <v>106711</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <v>125357.54189944135</v>
-      </c>
-      <c r="C18" s="1">
-        <v>42347.24540901502</v>
-      </c>
-      <c r="D18" s="1">
-        <v>61446.015424164521</v>
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>79373</v>
+      </c>
+      <c r="C18">
+        <v>56721</v>
+      </c>
+      <c r="D18">
+        <v>64127</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1">
-        <v>152828.79377431906</v>
-      </c>
-      <c r="C19" s="1">
-        <v>115257.51072961373</v>
-      </c>
-      <c r="D19" s="1">
-        <v>134963.26530612246</v>
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>117751</v>
+      </c>
+      <c r="C19">
+        <v>45005</v>
+      </c>
+      <c r="D19">
+        <v>62468</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>316661.57760814246</v>
-      </c>
-      <c r="C20" s="1">
-        <v>149023.40425531915</v>
-      </c>
-      <c r="D20" s="1">
-        <v>225363.84704519119</v>
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>136394</v>
+      </c>
+      <c r="C20">
+        <v>110856</v>
+      </c>
+      <c r="D20">
+        <v>123423</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1">
-        <v>69452.054794520547</v>
-      </c>
-      <c r="C21" s="1">
-        <v>31222.627737226278</v>
-      </c>
-      <c r="D21" s="1">
-        <v>39265.129682997118</v>
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>208646</v>
+      </c>
+      <c r="C21">
+        <v>94208</v>
+      </c>
+      <c r="D21">
+        <v>147432</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1">
-        <v>125745.09803921569</v>
-      </c>
-      <c r="C22" s="1">
-        <v>41917.098445595853</v>
-      </c>
-      <c r="D22" s="1">
-        <v>59438.524590163935</v>
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>68079</v>
+      </c>
+      <c r="C22">
+        <v>33846</v>
+      </c>
+      <c r="D22">
+        <v>42079</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1">
-        <v>171593.3014354067</v>
-      </c>
-      <c r="C23" s="1">
-        <v>132778.2656421515</v>
-      </c>
-      <c r="D23" s="1">
-        <v>140021.42857142858</v>
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>111971</v>
+      </c>
+      <c r="C23">
+        <v>36682</v>
+      </c>
+      <c r="D23">
+        <v>53725</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1">
-        <v>103765.95744680852</v>
-      </c>
-      <c r="C24" s="1">
-        <v>53389.380530973453</v>
-      </c>
-      <c r="D24" s="1">
-        <v>68187.5</v>
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>169343</v>
+      </c>
+      <c r="C24">
+        <v>130050</v>
+      </c>
+      <c r="D24">
+        <v>137302</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1">
-        <v>66000</v>
-      </c>
-      <c r="C25" s="1">
-        <v>28366.515837104071</v>
-      </c>
-      <c r="D25" s="1">
-        <v>36507.092198581558</v>
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>95426</v>
+      </c>
+      <c r="C25">
+        <v>58823</v>
+      </c>
+      <c r="D25">
+        <v>70659</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="1">
-        <v>26953.846153846152</v>
-      </c>
-      <c r="C26" s="1">
-        <v>13468.75</v>
-      </c>
-      <c r="D26" s="1">
-        <v>17364.444444444445</v>
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>62311</v>
+      </c>
+      <c r="C26">
+        <v>26413</v>
+      </c>
+      <c r="D26">
+        <v>34070</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1">
-        <v>339375.54585152841</v>
-      </c>
-      <c r="C27" s="1">
-        <v>182829.88505747129</v>
-      </c>
-      <c r="D27" s="1">
-        <v>236819.27710843374</v>
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>29717</v>
+      </c>
+      <c r="C27">
+        <v>16586</v>
+      </c>
+      <c r="D27">
+        <v>20429</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1">
-        <v>172697.01853344077</v>
-      </c>
-      <c r="C28" s="1">
-        <v>80436.225371586581</v>
-      </c>
-      <c r="D28" s="1">
-        <v>108132.31736816642</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>342107</v>
+      </c>
+      <c r="C28">
+        <v>201643</v>
+      </c>
+      <c r="D28">
+        <v>248610</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1">
-        <v>274070</v>
-      </c>
-      <c r="C29" s="1">
-        <v>90555.555555555562</v>
-      </c>
-      <c r="D29" s="1">
-        <v>144058.30903790088</v>
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>188931</v>
+      </c>
+      <c r="C29">
+        <v>79441</v>
+      </c>
+      <c r="D29">
+        <v>115172</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1">
-        <v>169465.90909090909</v>
-      </c>
-      <c r="C30" s="1">
-        <v>118675.92592592593</v>
-      </c>
-      <c r="D30" s="1">
-        <v>133378.28947368421</v>
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>276568</v>
+      </c>
+      <c r="C30">
+        <v>105979</v>
+      </c>
+      <c r="D30">
+        <v>152942</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1">
-        <v>77367.088607594938</v>
-      </c>
-      <c r="C31" s="1">
-        <v>42270.408163265311</v>
-      </c>
-      <c r="D31" s="1">
-        <v>52352.727272727272</v>
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>178196</v>
+      </c>
+      <c r="C31">
+        <v>94628</v>
+      </c>
+      <c r="D31">
+        <v>121307</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1">
-        <v>114025.64102564102</v>
-      </c>
-      <c r="C32" s="1">
-        <v>44840.891621829367</v>
-      </c>
-      <c r="D32" s="1">
-        <v>66300.636267232228</v>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>74537</v>
+      </c>
+      <c r="C32">
+        <v>45941</v>
+      </c>
+      <c r="D32">
+        <v>54690</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="1">
-        <v>120702.21327967806</v>
-      </c>
-      <c r="C33" s="1">
-        <v>78693.059628543488</v>
-      </c>
-      <c r="D33" s="1">
-        <v>92428.947368421053</v>
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>73375</v>
+      </c>
+      <c r="C33">
+        <v>39198</v>
+      </c>
+      <c r="D33">
+        <v>50061</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="1">
-        <v>24411.764705882353</v>
-      </c>
-      <c r="C34" s="1">
-        <v>13663.608562691132</v>
-      </c>
-      <c r="D34" s="1">
-        <v>15113.756613756614</v>
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>104383</v>
+      </c>
+      <c r="C34">
+        <v>108547</v>
+      </c>
+      <c r="D34">
+        <v>107060</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1">
-        <v>205340.5172413793</v>
-      </c>
-      <c r="C35" s="1">
-        <v>143303.35097001764</v>
-      </c>
-      <c r="D35" s="1">
-        <v>161316.64580725908</v>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>25549</v>
+      </c>
+      <c r="C35">
+        <v>14059</v>
+      </c>
+      <c r="D35">
+        <v>15626</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="1">
-        <v>235688.7159533074</v>
-      </c>
-      <c r="C36" s="1">
-        <v>169382.06627680312</v>
-      </c>
-      <c r="D36" s="1">
-        <v>182664.06858924395</v>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>211550</v>
+      </c>
+      <c r="C36">
+        <v>149456</v>
+      </c>
+      <c r="D36">
+        <v>164922</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="1">
-        <v>112614.4578313253</v>
-      </c>
-      <c r="C37" s="1">
-        <v>81471.42857142858</v>
-      </c>
-      <c r="D37" s="1">
-        <v>93062.78026905829</v>
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>228225</v>
+      </c>
+      <c r="C37">
+        <v>173362</v>
+      </c>
+      <c r="D37">
+        <v>184996</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>65392.739273927393</v>
-      </c>
-      <c r="C38" s="1">
-        <v>48350.77519379845</v>
-      </c>
-      <c r="D38" s="1">
-        <v>54655.67765567766</v>
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>113759</v>
+      </c>
+      <c r="C38">
+        <v>80276</v>
+      </c>
+      <c r="D38">
+        <v>93083</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="1">
-        <v>30960.216998191681</v>
-      </c>
-      <c r="C39" s="1">
-        <v>23221.42064372919</v>
-      </c>
-      <c r="D39" s="1">
-        <v>25038.64118895966</v>
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>65527</v>
+      </c>
+      <c r="C39">
+        <v>43370</v>
+      </c>
+      <c r="D39">
+        <v>51731</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="1">
-        <v>150662.18622551553</v>
-      </c>
-      <c r="C40" s="1">
-        <v>74359.694558658623</v>
-      </c>
-      <c r="D40" s="1">
-        <v>98571.824362502972</v>
+      <c r="B40">
+        <v>149078</v>
+      </c>
+      <c r="C40">
+        <v>78632</v>
+      </c>
+      <c r="D40">
+        <v>101304</v>
       </c>
     </row>
   </sheetData>
@@ -2051,6 +2016,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b021fe13dcae56d252e7321283a3f3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d73ac3668dfd0d4084037886131f3a8" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -2293,41 +2278,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C2D98D-4316-42A5-A479-7A098215D7A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B31F663-6144-4024-83F4-0C35A9D0D635}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2350,9 +2304,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B31F663-6144-4024-83F4-0C35A9D0D635}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C2D98D-4316-42A5-A479-7A098215D7A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ansp_employment.xlsx
+++ b/data/ansp_employment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C256BC-D814-448A-8B42-9DFA47EC9299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05718844-0B24-4333-B3E0-E93239EBEC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="346" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="346" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="6" r:id="rId1"/>
@@ -180,7 +180,7 @@
     <t>HASP</t>
   </si>
   <si>
-    <t>EUROCONTROL area -average values</t>
+    <t>EUROCONTROL area - average values</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5860F2C3-40C4-470A-B996-357D7A9DF598}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1441,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F5E44C-C8C2-4119-8BE2-279CC5806A69}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,26 +2016,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b021fe13dcae56d252e7321283a3f3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d73ac3668dfd0d4084037886131f3a8" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -2278,10 +2258,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B31F663-6144-4024-83F4-0C35A9D0D635}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C2D98D-4316-42A5-A479-7A098215D7A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2304,20 +2315,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C2D98D-4316-42A5-A479-7A098215D7A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B31F663-6144-4024-83F4-0C35A9D0D635}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/ansp_employment.xlsx
+++ b/data/ansp_employment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAEEFB8-9095-40C0-97A1-F8ECE3A2F913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05718844-0B24-4333-B3E0-E93239EBEC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="346" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="346" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="6" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>ENAV</t>
   </si>
   <si>
-    <t>HCAA</t>
-  </si>
-  <si>
     <t>HungaroControl</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>SMATSA</t>
   </si>
   <si>
-    <t>UkSATSE</t>
-  </si>
-  <si>
     <t>Oro navigacija</t>
   </si>
   <si>
@@ -180,7 +174,13 @@
     <t>funct</t>
   </si>
   <si>
-    <t>ECTRL Area (average)</t>
+    <t>BHANSA</t>
+  </si>
+  <si>
+    <t>HASP</t>
+  </si>
+  <si>
+    <t>EUROCONTROL area - average values</t>
   </si>
 </sst>
 </file>
@@ -908,9 +908,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="162">
     <cellStyle name="20 % - Accent1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1090,9 +1089,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1130,9 +1129,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1165,26 +1164,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1217,26 +1199,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1413,7 +1378,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,13 +1389,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,32 +1403,32 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>151000</v>
+        <v>149000</v>
       </c>
       <c r="C2">
-        <v>155000</v>
+        <v>174600</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>74000</v>
+        <v>78600</v>
       </c>
       <c r="C3">
-        <v>78000</v>
+        <v>96700</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>99000</v>
+        <v>101300</v>
       </c>
       <c r="C4">
-        <v>103000</v>
+        <v>122900</v>
       </c>
     </row>
   </sheetData>
@@ -1476,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F5E44C-C8C2-4119-8BE2-279CC5806A69}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,562 +1452,562 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>28517.857142857141</v>
-      </c>
-      <c r="C2" s="1">
-        <v>13526.717557251908</v>
-      </c>
-      <c r="D2" s="1">
-        <v>16166.666666666668</v>
+      <c r="B2">
+        <v>25157</v>
+      </c>
+      <c r="C2">
+        <v>12004</v>
+      </c>
+      <c r="D2">
+        <v>14278</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>134613.95348837209</v>
-      </c>
-      <c r="C3" s="1">
-        <v>53924.840764331209</v>
-      </c>
-      <c r="D3" s="1">
-        <v>71273</v>
+      <c r="B3">
+        <v>92480</v>
+      </c>
+      <c r="C3">
+        <v>48890</v>
+      </c>
+      <c r="D3">
+        <v>59632</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>23267.605633802817</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13417.040358744394</v>
-      </c>
-      <c r="D4" s="1">
-        <v>15795.91836734694</v>
+      <c r="B4">
+        <v>26608</v>
+      </c>
+      <c r="C4">
+        <v>15573</v>
+      </c>
+      <c r="D4">
+        <v>18564</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>203530.90909090909</v>
-      </c>
-      <c r="C5" s="1">
-        <v>108389.89169675091</v>
-      </c>
-      <c r="D5" s="1">
-        <v>139950.54282267793</v>
+      <c r="B5">
+        <v>212241</v>
+      </c>
+      <c r="C5">
+        <v>144827</v>
+      </c>
+      <c r="D5">
+        <v>168198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>189000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>98724.845995893222</v>
-      </c>
-      <c r="D6" s="1">
-        <v>134857.14285714287</v>
+      <c r="B6">
+        <v>200980</v>
+      </c>
+      <c r="C6">
+        <v>100844</v>
+      </c>
+      <c r="D6">
+        <v>141867</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>100669.06474820143</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44450.428396572825</v>
-      </c>
-      <c r="D7" s="1">
-        <v>58723.287671232873</v>
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>33229</v>
+      </c>
+      <c r="C7">
+        <v>27790</v>
+      </c>
+      <c r="D7">
+        <v>29339</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>127816.59388646288</v>
-      </c>
-      <c r="C8" s="1">
-        <v>62619.589977220952</v>
-      </c>
-      <c r="D8" s="1">
-        <v>84970.059880239511</v>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>97975</v>
+      </c>
+      <c r="C8">
+        <v>43886</v>
+      </c>
+      <c r="D8">
+        <v>57983</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>95163.461538461532</v>
-      </c>
-      <c r="C9" s="1">
-        <v>60238.095238095244</v>
-      </c>
-      <c r="D9" s="1">
-        <v>76030.434782608689</v>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>114253</v>
+      </c>
+      <c r="C9">
+        <v>55490</v>
+      </c>
+      <c r="D9">
+        <v>75575</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>251567.42556917688</v>
-      </c>
-      <c r="C10" s="1">
-        <v>102682.89211500142</v>
-      </c>
-      <c r="D10" s="1">
-        <v>151484.88327592803</v>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>103333</v>
+      </c>
+      <c r="C10">
+        <v>65184</v>
+      </c>
+      <c r="D10">
+        <v>82867</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>56915.117719950431</v>
-      </c>
-      <c r="C11" s="1">
-        <v>16145.912187736563</v>
-      </c>
-      <c r="D11" s="1">
-        <v>25685.126123514063</v>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>259922</v>
+      </c>
+      <c r="C11">
+        <v>108590</v>
+      </c>
+      <c r="D11">
+        <v>154303</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>134859.15492957746</v>
-      </c>
-      <c r="C12" s="1">
-        <v>100782.62634463163</v>
-      </c>
-      <c r="D12" s="1">
-        <v>113242.6934466332</v>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>48531</v>
+      </c>
+      <c r="C12">
+        <v>13627</v>
+      </c>
+      <c r="D12">
+        <v>21911</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>119983.05084745763</v>
-      </c>
-      <c r="C13" s="1">
-        <v>46355.932203389835</v>
-      </c>
-      <c r="D13" s="1">
-        <v>70898.305084745763</v>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>135757</v>
+      </c>
+      <c r="C13">
+        <v>101783</v>
+      </c>
+      <c r="D13">
+        <v>114204</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1">
-        <v>188964.1791044776</v>
-      </c>
-      <c r="C14" s="1">
-        <v>95189.296771340116</v>
-      </c>
-      <c r="D14" s="1">
-        <v>135096.03658536586</v>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>118386</v>
+      </c>
+      <c r="C14">
+        <v>44161</v>
+      </c>
+      <c r="D14">
+        <v>68337</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>147111.1903064861</v>
-      </c>
-      <c r="C15" s="1">
-        <v>94597.609561752994</v>
-      </c>
-      <c r="D15" s="1">
-        <v>119924.71639738741</v>
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>189385</v>
+      </c>
+      <c r="C15">
+        <v>100512</v>
+      </c>
+      <c r="D15">
+        <v>136938</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1">
-        <v>124857.14285714286</v>
-      </c>
-      <c r="C16" s="1">
-        <v>83327.044025157229</v>
-      </c>
-      <c r="D16" s="1">
-        <v>102772.57525083613</v>
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>160131</v>
+      </c>
+      <c r="C16">
+        <v>107708</v>
+      </c>
+      <c r="D16">
+        <v>131787</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1">
-        <v>73271.983640081802</v>
-      </c>
-      <c r="C17" s="1">
-        <v>50605.194805194806</v>
-      </c>
-      <c r="D17" s="1">
-        <v>57347.323600973235</v>
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>121324</v>
+      </c>
+      <c r="C17">
+        <v>91881</v>
+      </c>
+      <c r="D17">
+        <v>106711</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <v>125357.54189944135</v>
-      </c>
-      <c r="C18" s="1">
-        <v>42347.24540901502</v>
-      </c>
-      <c r="D18" s="1">
-        <v>61446.015424164521</v>
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>79373</v>
+      </c>
+      <c r="C18">
+        <v>56721</v>
+      </c>
+      <c r="D18">
+        <v>64127</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1">
-        <v>152828.79377431906</v>
-      </c>
-      <c r="C19" s="1">
-        <v>115257.51072961373</v>
-      </c>
-      <c r="D19" s="1">
-        <v>134963.26530612246</v>
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>117751</v>
+      </c>
+      <c r="C19">
+        <v>45005</v>
+      </c>
+      <c r="D19">
+        <v>62468</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>316661.57760814246</v>
-      </c>
-      <c r="C20" s="1">
-        <v>149023.40425531915</v>
-      </c>
-      <c r="D20" s="1">
-        <v>225363.84704519119</v>
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>136394</v>
+      </c>
+      <c r="C20">
+        <v>110856</v>
+      </c>
+      <c r="D20">
+        <v>123423</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1">
-        <v>69452.054794520547</v>
-      </c>
-      <c r="C21" s="1">
-        <v>31222.627737226278</v>
-      </c>
-      <c r="D21" s="1">
-        <v>39265.129682997118</v>
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>208646</v>
+      </c>
+      <c r="C21">
+        <v>94208</v>
+      </c>
+      <c r="D21">
+        <v>147432</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1">
-        <v>125745.09803921569</v>
-      </c>
-      <c r="C22" s="1">
-        <v>41917.098445595853</v>
-      </c>
-      <c r="D22" s="1">
-        <v>59438.524590163935</v>
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>68079</v>
+      </c>
+      <c r="C22">
+        <v>33846</v>
+      </c>
+      <c r="D22">
+        <v>42079</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1">
-        <v>171593.3014354067</v>
-      </c>
-      <c r="C23" s="1">
-        <v>132778.2656421515</v>
-      </c>
-      <c r="D23" s="1">
-        <v>140021.42857142858</v>
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>111971</v>
+      </c>
+      <c r="C23">
+        <v>36682</v>
+      </c>
+      <c r="D23">
+        <v>53725</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1">
-        <v>103765.95744680852</v>
-      </c>
-      <c r="C24" s="1">
-        <v>53389.380530973453</v>
-      </c>
-      <c r="D24" s="1">
-        <v>68187.5</v>
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>169343</v>
+      </c>
+      <c r="C24">
+        <v>130050</v>
+      </c>
+      <c r="D24">
+        <v>137302</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1">
-        <v>66000</v>
-      </c>
-      <c r="C25" s="1">
-        <v>28366.515837104071</v>
-      </c>
-      <c r="D25" s="1">
-        <v>36507.092198581558</v>
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>95426</v>
+      </c>
+      <c r="C25">
+        <v>58823</v>
+      </c>
+      <c r="D25">
+        <v>70659</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="1">
-        <v>26953.846153846152</v>
-      </c>
-      <c r="C26" s="1">
-        <v>13468.75</v>
-      </c>
-      <c r="D26" s="1">
-        <v>17364.444444444445</v>
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>62311</v>
+      </c>
+      <c r="C26">
+        <v>26413</v>
+      </c>
+      <c r="D26">
+        <v>34070</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1">
-        <v>339375.54585152841</v>
-      </c>
-      <c r="C27" s="1">
-        <v>182829.88505747129</v>
-      </c>
-      <c r="D27" s="1">
-        <v>236819.27710843374</v>
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>29717</v>
+      </c>
+      <c r="C27">
+        <v>16586</v>
+      </c>
+      <c r="D27">
+        <v>20429</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1">
-        <v>172697.01853344077</v>
-      </c>
-      <c r="C28" s="1">
-        <v>80436.225371586581</v>
-      </c>
-      <c r="D28" s="1">
-        <v>108132.31736816642</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>342107</v>
+      </c>
+      <c r="C28">
+        <v>201643</v>
+      </c>
+      <c r="D28">
+        <v>248610</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1">
-        <v>274070</v>
-      </c>
-      <c r="C29" s="1">
-        <v>90555.555555555562</v>
-      </c>
-      <c r="D29" s="1">
-        <v>144058.30903790088</v>
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>188931</v>
+      </c>
+      <c r="C29">
+        <v>79441</v>
+      </c>
+      <c r="D29">
+        <v>115172</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1">
-        <v>169465.90909090909</v>
-      </c>
-      <c r="C30" s="1">
-        <v>118675.92592592593</v>
-      </c>
-      <c r="D30" s="1">
-        <v>133378.28947368421</v>
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>276568</v>
+      </c>
+      <c r="C30">
+        <v>105979</v>
+      </c>
+      <c r="D30">
+        <v>152942</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1">
-        <v>77367.088607594938</v>
-      </c>
-      <c r="C31" s="1">
-        <v>42270.408163265311</v>
-      </c>
-      <c r="D31" s="1">
-        <v>52352.727272727272</v>
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>178196</v>
+      </c>
+      <c r="C31">
+        <v>94628</v>
+      </c>
+      <c r="D31">
+        <v>121307</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1">
-        <v>114025.64102564102</v>
-      </c>
-      <c r="C32" s="1">
-        <v>44840.891621829367</v>
-      </c>
-      <c r="D32" s="1">
-        <v>66300.636267232228</v>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>74537</v>
+      </c>
+      <c r="C32">
+        <v>45941</v>
+      </c>
+      <c r="D32">
+        <v>54690</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="1">
-        <v>120702.21327967806</v>
-      </c>
-      <c r="C33" s="1">
-        <v>78693.059628543488</v>
-      </c>
-      <c r="D33" s="1">
-        <v>92428.947368421053</v>
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>73375</v>
+      </c>
+      <c r="C33">
+        <v>39198</v>
+      </c>
+      <c r="D33">
+        <v>50061</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="1">
-        <v>24411.764705882353</v>
-      </c>
-      <c r="C34" s="1">
-        <v>13663.608562691132</v>
-      </c>
-      <c r="D34" s="1">
-        <v>15113.756613756614</v>
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>104383</v>
+      </c>
+      <c r="C34">
+        <v>108547</v>
+      </c>
+      <c r="D34">
+        <v>107060</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1">
-        <v>205340.5172413793</v>
-      </c>
-      <c r="C35" s="1">
-        <v>143303.35097001764</v>
-      </c>
-      <c r="D35" s="1">
-        <v>161316.64580725908</v>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>25549</v>
+      </c>
+      <c r="C35">
+        <v>14059</v>
+      </c>
+      <c r="D35">
+        <v>15626</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="1">
-        <v>235688.7159533074</v>
-      </c>
-      <c r="C36" s="1">
-        <v>169382.06627680312</v>
-      </c>
-      <c r="D36" s="1">
-        <v>182664.06858924395</v>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>211550</v>
+      </c>
+      <c r="C36">
+        <v>149456</v>
+      </c>
+      <c r="D36">
+        <v>164922</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="1">
-        <v>112614.4578313253</v>
-      </c>
-      <c r="C37" s="1">
-        <v>81471.42857142858</v>
-      </c>
-      <c r="D37" s="1">
-        <v>93062.78026905829</v>
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>228225</v>
+      </c>
+      <c r="C37">
+        <v>173362</v>
+      </c>
+      <c r="D37">
+        <v>184996</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <v>65392.739273927393</v>
-      </c>
-      <c r="C38" s="1">
-        <v>48350.77519379845</v>
-      </c>
-      <c r="D38" s="1">
-        <v>54655.67765567766</v>
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>113759</v>
+      </c>
+      <c r="C38">
+        <v>80276</v>
+      </c>
+      <c r="D38">
+        <v>93083</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="1">
-        <v>30960.216998191681</v>
-      </c>
-      <c r="C39" s="1">
-        <v>23221.42064372919</v>
-      </c>
-      <c r="D39" s="1">
-        <v>25038.64118895966</v>
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>65527</v>
+      </c>
+      <c r="C39">
+        <v>43370</v>
+      </c>
+      <c r="D39">
+        <v>51731</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="1">
-        <v>150662.18622551553</v>
-      </c>
-      <c r="C40" s="1">
-        <v>74359.694558658623</v>
-      </c>
-      <c r="D40" s="1">
-        <v>98571.824362502972</v>
+      <c r="B40">
+        <v>149078</v>
+      </c>
+      <c r="C40">
+        <v>78632</v>
+      </c>
+      <c r="D40">
+        <v>101304</v>
       </c>
     </row>
   </sheetData>
